--- a/annotation/irr_selina_test.xlsx
+++ b/annotation/irr_selina_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E06B18-1165-4735-B6D5-B867A6972BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80603C4F-7B20-4232-9799-E5F38EF68F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="239">
   <si>
     <t>utterance</t>
   </si>
@@ -34,39 +34,24 @@
     <t>Ok. Gemüsebrühe brauchen wir auf jeden Fall und was was steht noch da?</t>
   </si>
   <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
     <t>Was heißt es da?</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>FÜNFhundert Gramm weißen Spargel pro Person?</t>
   </si>
   <si>
     <t>Abschälen muss man den schon vorher den Spargel oder? Nehm ich mal an</t>
   </si>
   <si>
-    <t>Cooking technique</t>
-  </si>
-  <si>
     <t>Ach schon gleich von Anfang an</t>
   </si>
   <si>
-    <t>Preparation</t>
-  </si>
-  <si>
     <t>Achso zuerst zuerst äh äh</t>
   </si>
   <si>
     <t>Äh weißt du noch wie lange das Dünsten geht steht da auch was drin?</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Mhm?</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>Kannst du mir nochmal das Rezept sagen mit diesen Kidneybohnen?</t>
   </si>
   <si>
-    <t>Recipe</t>
-  </si>
-  <si>
     <t>Die Mengenangabe für die Brühe?</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Gibt es da auch Bilder?</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>Und wie lange dauert überhaupt KOCHzeit was steht da geschrieben</t>
   </si>
   <si>
@@ -193,18 +172,12 @@
     <t>Teelöffel sind die Kleinen oder?</t>
   </si>
   <si>
-    <t>Equipment</t>
-  </si>
-  <si>
     <t>Gut. Ok. Wie bereitet man die Kichererbsen zu?</t>
   </si>
   <si>
     <t>Wo ist der Unterschied zwischen Crème fraîche und Schlagrahm?</t>
   </si>
   <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
     <t>Ok. Heißt das jetzt aber also kann man die jetzt auch schon essen oder noch nicht.</t>
   </si>
   <si>
@@ -409,9 +382,6 @@
     <t>Das alles wahrscheinlich auch immer noch auf mittlerer Hitze oder?</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Also jetzt Honig dann die Paprika und währenddessen schon ein bisschen Salz und Kräuter oder wie war das?</t>
   </si>
   <si>
@@ -515,9 +485,6 @@
   </si>
   <si>
     <t>Was für typische Gerichte gibt es mit dem Topinambur?</t>
-  </si>
-  <si>
-    <t>Meal</t>
   </si>
   <si>
     <t>Also was mich interessieren würde wäre wie ich da Eier irgendwie mit verarbeiten soll? Also</t>
@@ -842,6 +809,23 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -869,23 +853,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -900,10 +867,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{248E5168-3398-4DBE-8134-6CD659A0E690}" name="Tabelle1" displayName="Tabelle1" ref="A1:D252" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{248E5168-3398-4DBE-8134-6CD659A0E690}" name="Tabelle1" displayName="Tabelle1" ref="A1:D252" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:D252" xr:uid="{4B28D97D-AFEE-4B0C-8239-046C62C42E13}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31457BF5-D8D6-45B2-9B3F-D8DC3EBC8BC5}" name="utterance" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{31457BF5-D8D6-45B2-9B3F-D8DC3EBC8BC5}" name="utterance" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9712B26-D278-4FE0-B40E-7793F51BD9F7}" name="tp"/>
     <tableColumn id="3" xr3:uid="{9E91CCAD-D5CF-42E4-9D07-78B180355A60}" name="absatz"/>
     <tableColumn id="4" xr3:uid="{909F4B0F-C10D-4FBE-BC6C-C732455CD455}" name="info_need"/>
@@ -1200,7 +1167,7 @@
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1233,13 +1200,10 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1247,13 +1211,10 @@
       <c r="C3">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1261,13 +1222,10 @@
       <c r="C4">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1275,13 +1233,10 @@
       <c r="C5">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1289,13 +1244,10 @@
       <c r="C6">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1303,13 +1255,10 @@
       <c r="C7">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1317,13 +1266,10 @@
       <c r="C8">
         <v>118</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1331,13 +1277,10 @@
       <c r="C9">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1345,13 +1288,10 @@
       <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1359,13 +1299,10 @@
       <c r="C11">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1373,13 +1310,10 @@
       <c r="C12">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1387,13 +1321,10 @@
       <c r="C13">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1401,13 +1332,10 @@
       <c r="C14">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1415,13 +1343,10 @@
       <c r="C15">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1429,13 +1354,10 @@
       <c r="C16">
         <v>136</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1443,13 +1365,10 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1457,13 +1376,10 @@
       <c r="C18">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1471,13 +1387,10 @@
       <c r="C19">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1485,13 +1398,10 @@
       <c r="C20">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1499,13 +1409,10 @@
       <c r="C21">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1513,13 +1420,10 @@
       <c r="C22">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -1527,13 +1431,10 @@
       <c r="C23">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1541,13 +1442,10 @@
       <c r="C24">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1555,13 +1453,10 @@
       <c r="C25">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1569,13 +1464,10 @@
       <c r="C26">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1583,13 +1475,10 @@
       <c r="C27">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1597,13 +1486,10 @@
       <c r="C28">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1611,13 +1497,10 @@
       <c r="C29">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1625,13 +1508,10 @@
       <c r="C30">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -1639,13 +1519,10 @@
       <c r="C31">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1653,13 +1530,10 @@
       <c r="C32">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -1667,13 +1541,10 @@
       <c r="C33">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1681,13 +1552,10 @@
       <c r="C34">
         <v>154</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1695,13 +1563,10 @@
       <c r="C35">
         <v>172</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -1709,13 +1574,10 @@
       <c r="C36">
         <v>46</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1723,13 +1585,10 @@
       <c r="C37">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1737,13 +1596,10 @@
       <c r="C38">
         <v>62</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1751,13 +1607,10 @@
       <c r="C39">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1765,13 +1618,10 @@
       <c r="C40">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -1779,13 +1629,10 @@
       <c r="C41">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -1793,13 +1640,10 @@
       <c r="C42">
         <v>100</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -1807,13 +1651,10 @@
       <c r="C43">
         <v>110</v>
       </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -1821,13 +1662,10 @@
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -1835,13 +1673,10 @@
       <c r="C45">
         <v>53</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -1849,13 +1684,10 @@
       <c r="C46">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -1863,13 +1695,10 @@
       <c r="C47">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1877,13 +1706,10 @@
       <c r="C48">
         <v>18</v>
       </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1891,13 +1717,10 @@
       <c r="C49">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -1905,13 +1728,10 @@
       <c r="C50">
         <v>94</v>
       </c>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1919,13 +1739,10 @@
       <c r="C51">
         <v>67</v>
       </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -1933,13 +1750,10 @@
       <c r="C52">
         <v>75</v>
       </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -1947,13 +1761,10 @@
       <c r="C53">
         <v>101</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -1961,13 +1772,10 @@
       <c r="C54">
         <v>101</v>
       </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>13</v>
@@ -1975,13 +1783,10 @@
       <c r="C55">
         <v>20</v>
       </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>13</v>
@@ -1989,13 +1794,10 @@
       <c r="C56">
         <v>70</v>
       </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -2003,13 +1805,10 @@
       <c r="C57">
         <v>96</v>
       </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>13</v>
@@ -2017,13 +1816,10 @@
       <c r="C58">
         <v>106</v>
       </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>14</v>
@@ -2031,13 +1827,10 @@
       <c r="C59">
         <v>164</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>14</v>
@@ -2045,13 +1838,10 @@
       <c r="C60">
         <v>168</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>14</v>
@@ -2059,13 +1849,10 @@
       <c r="C61">
         <v>216</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -2073,13 +1860,10 @@
       <c r="C62">
         <v>220</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>14</v>
@@ -2087,13 +1871,10 @@
       <c r="C63">
         <v>248</v>
       </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -2101,13 +1882,10 @@
       <c r="C64">
         <v>258</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>14</v>
@@ -2115,13 +1893,10 @@
       <c r="C65">
         <v>264</v>
       </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>15</v>
@@ -2129,13 +1904,10 @@
       <c r="C66">
         <v>54</v>
       </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>15</v>
@@ -2143,13 +1915,10 @@
       <c r="C67">
         <v>56</v>
       </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>15</v>
@@ -2157,13 +1926,10 @@
       <c r="C68">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>15</v>
@@ -2171,13 +1937,10 @@
       <c r="C69">
         <v>102</v>
       </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>15</v>
@@ -2185,13 +1948,10 @@
       <c r="C70">
         <v>160</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>15</v>
@@ -2199,13 +1959,10 @@
       <c r="C71">
         <v>192</v>
       </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>16</v>
@@ -2213,13 +1970,10 @@
       <c r="C72">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>16</v>
@@ -2227,13 +1981,10 @@
       <c r="C73">
         <v>60</v>
       </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>17</v>
@@ -2241,13 +1992,10 @@
       <c r="C74">
         <v>11</v>
       </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>17</v>
@@ -2255,13 +2003,10 @@
       <c r="C75">
         <v>39</v>
       </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>17</v>
@@ -2269,13 +2014,10 @@
       <c r="C76">
         <v>75</v>
       </c>
-      <c r="D76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>17</v>
@@ -2283,13 +2025,10 @@
       <c r="C77">
         <v>85</v>
       </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -2297,13 +2036,10 @@
       <c r="C78">
         <v>97</v>
       </c>
-      <c r="D78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -2311,13 +2047,10 @@
       <c r="C79">
         <v>101</v>
       </c>
-      <c r="D79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>17</v>
@@ -2325,13 +2058,10 @@
       <c r="C80">
         <v>149</v>
       </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>17</v>
@@ -2339,13 +2069,10 @@
       <c r="C81">
         <v>167</v>
       </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>17</v>
@@ -2353,13 +2080,10 @@
       <c r="C82">
         <v>181</v>
       </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -2367,13 +2091,10 @@
       <c r="C83">
         <v>203</v>
       </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>17</v>
@@ -2381,13 +2102,10 @@
       <c r="C84">
         <v>225</v>
       </c>
-      <c r="D84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -2395,13 +2113,10 @@
       <c r="C85">
         <v>227</v>
       </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>17</v>
@@ -2409,13 +2124,10 @@
       <c r="C86">
         <v>291</v>
       </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2423,13 +2135,10 @@
       <c r="C87">
         <v>295</v>
       </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -2437,13 +2146,10 @@
       <c r="C88">
         <v>24</v>
       </c>
-      <c r="D88" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>18</v>
@@ -2451,13 +2157,10 @@
       <c r="C89">
         <v>40</v>
       </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B90">
         <v>18</v>
@@ -2465,13 +2168,10 @@
       <c r="C90">
         <v>50</v>
       </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B91">
         <v>18</v>
@@ -2479,13 +2179,10 @@
       <c r="C91">
         <v>52</v>
       </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>19</v>
@@ -2493,13 +2190,10 @@
       <c r="C92">
         <v>28</v>
       </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>19</v>
@@ -2507,13 +2201,10 @@
       <c r="C93">
         <v>38</v>
       </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>20</v>
@@ -2521,13 +2212,10 @@
       <c r="C94">
         <v>58</v>
       </c>
-      <c r="D94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B95">
         <v>21</v>
@@ -2535,13 +2223,10 @@
       <c r="C95">
         <v>10</v>
       </c>
-      <c r="D95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>21</v>
@@ -2549,13 +2234,10 @@
       <c r="C96">
         <v>24</v>
       </c>
-      <c r="D96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>21</v>
@@ -2563,13 +2245,10 @@
       <c r="C97">
         <v>118</v>
       </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B98">
         <v>21</v>
@@ -2577,13 +2256,10 @@
       <c r="C98">
         <v>142</v>
       </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>21</v>
@@ -2591,13 +2267,10 @@
       <c r="C99">
         <v>172</v>
       </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>21</v>
@@ -2605,13 +2278,10 @@
       <c r="C100">
         <v>234</v>
       </c>
-      <c r="D100" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>21</v>
@@ -2619,13 +2289,10 @@
       <c r="C101">
         <v>234</v>
       </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B102">
         <v>22</v>
@@ -2633,13 +2300,10 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>22</v>
@@ -2647,13 +2311,10 @@
       <c r="C103">
         <v>13</v>
       </c>
-      <c r="D103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B104">
         <v>22</v>
@@ -2661,13 +2322,10 @@
       <c r="C104">
         <v>43</v>
       </c>
-      <c r="D104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B105">
         <v>22</v>
@@ -2675,13 +2333,10 @@
       <c r="C105">
         <v>49</v>
       </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B106">
         <v>22</v>
@@ -2689,13 +2344,10 @@
       <c r="C106">
         <v>61</v>
       </c>
-      <c r="D106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>22</v>
@@ -2703,13 +2355,10 @@
       <c r="C107">
         <v>63</v>
       </c>
-      <c r="D107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>22</v>
@@ -2717,13 +2366,10 @@
       <c r="C108">
         <v>87</v>
       </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B109">
         <v>22</v>
@@ -2731,13 +2377,10 @@
       <c r="C109">
         <v>111</v>
       </c>
-      <c r="D109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -2745,13 +2388,10 @@
       <c r="C110">
         <v>141</v>
       </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>22</v>
@@ -2759,13 +2399,10 @@
       <c r="C111">
         <v>211</v>
       </c>
-      <c r="D111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B112">
         <v>22</v>
@@ -2773,13 +2410,10 @@
       <c r="C112">
         <v>257</v>
       </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113">
         <v>23</v>
@@ -2787,13 +2421,10 @@
       <c r="C113">
         <v>28</v>
       </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B114">
         <v>23</v>
@@ -2801,13 +2432,10 @@
       <c r="C114">
         <v>42</v>
       </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B115">
         <v>23</v>
@@ -2815,13 +2443,10 @@
       <c r="C115">
         <v>44</v>
       </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B116">
         <v>23</v>
@@ -2829,13 +2454,10 @@
       <c r="C116">
         <v>72</v>
       </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>23</v>
@@ -2843,13 +2465,10 @@
       <c r="C117">
         <v>118</v>
       </c>
-      <c r="D117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B118">
         <v>23</v>
@@ -2857,13 +2476,10 @@
       <c r="C118">
         <v>160</v>
       </c>
-      <c r="D118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B119">
         <v>24</v>
@@ -2871,13 +2487,10 @@
       <c r="C119">
         <v>71</v>
       </c>
-      <c r="D119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B120">
         <v>24</v>
@@ -2885,13 +2498,10 @@
       <c r="C120">
         <v>111</v>
       </c>
-      <c r="D120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B121">
         <v>24</v>
@@ -2899,13 +2509,10 @@
       <c r="C121">
         <v>123</v>
       </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B122">
         <v>24</v>
@@ -2913,13 +2520,10 @@
       <c r="C122">
         <v>133</v>
       </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>24</v>
@@ -2927,13 +2531,10 @@
       <c r="C123">
         <v>155</v>
       </c>
-      <c r="D123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>24</v>
@@ -2941,13 +2542,10 @@
       <c r="C124">
         <v>161</v>
       </c>
-      <c r="D124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>24</v>
@@ -2955,13 +2553,10 @@
       <c r="C125">
         <v>165</v>
       </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>24</v>
@@ -2969,13 +2564,10 @@
       <c r="C126">
         <v>169</v>
       </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>25</v>
@@ -2983,13 +2575,10 @@
       <c r="C127">
         <v>48</v>
       </c>
-      <c r="D127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>25</v>
@@ -2997,13 +2586,10 @@
       <c r="C128">
         <v>56</v>
       </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>25</v>
@@ -3011,13 +2597,10 @@
       <c r="C129">
         <v>102</v>
       </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>25</v>
@@ -3025,13 +2608,10 @@
       <c r="C130">
         <v>114</v>
       </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B131">
         <v>26</v>
@@ -3039,13 +2619,10 @@
       <c r="C131">
         <v>42</v>
       </c>
-      <c r="D131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>26</v>
@@ -3053,13 +2630,10 @@
       <c r="C132">
         <v>82</v>
       </c>
-      <c r="D132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>26</v>
@@ -3067,13 +2641,10 @@
       <c r="C133">
         <v>96</v>
       </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B134">
         <v>26</v>
@@ -3081,13 +2652,10 @@
       <c r="C134">
         <v>126</v>
       </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B135">
         <v>26</v>
@@ -3095,13 +2663,10 @@
       <c r="C135">
         <v>152</v>
       </c>
-      <c r="D135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B136">
         <v>26</v>
@@ -3109,13 +2674,10 @@
       <c r="C136">
         <v>186</v>
       </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B137">
         <v>26</v>
@@ -3123,13 +2685,10 @@
       <c r="C137">
         <v>238</v>
       </c>
-      <c r="D137" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>26</v>
@@ -3137,13 +2696,10 @@
       <c r="C138">
         <v>302</v>
       </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>26</v>
@@ -3151,13 +2707,10 @@
       <c r="C139">
         <v>314</v>
       </c>
-      <c r="D139" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>26</v>
@@ -3165,13 +2718,10 @@
       <c r="C140">
         <v>340</v>
       </c>
-      <c r="D140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>27</v>
@@ -3179,13 +2729,10 @@
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B142">
         <v>27</v>
@@ -3193,13 +2740,10 @@
       <c r="C142">
         <v>9</v>
       </c>
-      <c r="D142" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B143">
         <v>27</v>
@@ -3207,13 +2751,10 @@
       <c r="C143">
         <v>55</v>
       </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B144">
         <v>27</v>
@@ -3221,13 +2762,10 @@
       <c r="C144">
         <v>75</v>
       </c>
-      <c r="D144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B145">
         <v>27</v>
@@ -3235,13 +2773,10 @@
       <c r="C145">
         <v>93</v>
       </c>
-      <c r="D145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B146">
         <v>27</v>
@@ -3249,13 +2784,10 @@
       <c r="C146">
         <v>105</v>
       </c>
-      <c r="D146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B147">
         <v>28</v>
@@ -3263,13 +2795,10 @@
       <c r="C147">
         <v>5</v>
       </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B148">
         <v>29</v>
@@ -3277,13 +2806,10 @@
       <c r="C148">
         <v>22</v>
       </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B149">
         <v>29</v>
@@ -3291,13 +2817,10 @@
       <c r="C149">
         <v>40</v>
       </c>
-      <c r="D149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B150">
         <v>29</v>
@@ -3305,13 +2828,10 @@
       <c r="C150">
         <v>48</v>
       </c>
-      <c r="D150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B151">
         <v>29</v>
@@ -3319,13 +2839,10 @@
       <c r="C151">
         <v>52</v>
       </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B152">
         <v>30</v>
@@ -3333,13 +2850,10 @@
       <c r="C152">
         <v>3</v>
       </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B153">
         <v>30</v>
@@ -3347,13 +2861,10 @@
       <c r="C153">
         <v>7</v>
       </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B154">
         <v>30</v>
@@ -3361,13 +2872,10 @@
       <c r="C154">
         <v>45</v>
       </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B155">
         <v>30</v>
@@ -3375,13 +2883,10 @@
       <c r="C155">
         <v>113</v>
       </c>
-      <c r="D155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B156">
         <v>30</v>
@@ -3389,13 +2894,10 @@
       <c r="C156">
         <v>185</v>
       </c>
-      <c r="D156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B157">
         <v>31</v>
@@ -3403,13 +2905,10 @@
       <c r="C157">
         <v>26</v>
       </c>
-      <c r="D157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B158">
         <v>31</v>
@@ -3417,13 +2916,10 @@
       <c r="C158">
         <v>44</v>
       </c>
-      <c r="D158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B159">
         <v>32</v>
@@ -3431,13 +2927,10 @@
       <c r="C159">
         <v>27</v>
       </c>
-      <c r="D159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B160">
         <v>32</v>
@@ -3445,13 +2938,10 @@
       <c r="C160">
         <v>31</v>
       </c>
-      <c r="D160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B161">
         <v>32</v>
@@ -3459,13 +2949,10 @@
       <c r="C161">
         <v>35</v>
       </c>
-      <c r="D161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B162">
         <v>32</v>
@@ -3473,13 +2960,10 @@
       <c r="C162">
         <v>81</v>
       </c>
-      <c r="D162" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B163">
         <v>32</v>
@@ -3487,13 +2971,10 @@
       <c r="C163">
         <v>101</v>
       </c>
-      <c r="D163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B164">
         <v>33</v>
@@ -3501,13 +2982,10 @@
       <c r="C164">
         <v>9</v>
       </c>
-      <c r="D164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B165">
         <v>33</v>
@@ -3515,13 +2993,10 @@
       <c r="C165">
         <v>67</v>
       </c>
-      <c r="D165" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B166">
         <v>34</v>
@@ -3529,13 +3004,10 @@
       <c r="C166">
         <v>9</v>
       </c>
-      <c r="D166" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B167">
         <v>34</v>
@@ -3543,13 +3015,10 @@
       <c r="C167">
         <v>13</v>
       </c>
-      <c r="D167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B168">
         <v>34</v>
@@ -3557,13 +3026,10 @@
       <c r="C168">
         <v>27</v>
       </c>
-      <c r="D168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B169">
         <v>34</v>
@@ -3571,13 +3037,10 @@
       <c r="C169">
         <v>31</v>
       </c>
-      <c r="D169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B170">
         <v>34</v>
@@ -3585,13 +3048,10 @@
       <c r="C170">
         <v>49</v>
       </c>
-      <c r="D170" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B171">
         <v>34</v>
@@ -3599,13 +3059,10 @@
       <c r="C171">
         <v>59</v>
       </c>
-      <c r="D171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B172">
         <v>34</v>
@@ -3613,13 +3070,10 @@
       <c r="C172">
         <v>71</v>
       </c>
-      <c r="D172" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B173">
         <v>34</v>
@@ -3627,13 +3081,10 @@
       <c r="C173">
         <v>93</v>
       </c>
-      <c r="D173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B174">
         <v>34</v>
@@ -3641,13 +3092,10 @@
       <c r="C174">
         <v>155</v>
       </c>
-      <c r="D174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B175">
         <v>35</v>
@@ -3655,13 +3103,10 @@
       <c r="C175">
         <v>5</v>
       </c>
-      <c r="D175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B176">
         <v>35</v>
@@ -3669,13 +3114,10 @@
       <c r="C176">
         <v>21</v>
       </c>
-      <c r="D176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B177">
         <v>35</v>
@@ -3683,13 +3125,10 @@
       <c r="C177">
         <v>25</v>
       </c>
-      <c r="D177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B178">
         <v>35</v>
@@ -3697,13 +3136,10 @@
       <c r="C178">
         <v>41</v>
       </c>
-      <c r="D178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B179">
         <v>35</v>
@@ -3711,13 +3147,10 @@
       <c r="C179">
         <v>47</v>
       </c>
-      <c r="D179" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B180">
         <v>35</v>
@@ -3725,13 +3158,10 @@
       <c r="C180">
         <v>65</v>
       </c>
-      <c r="D180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B181">
         <v>35</v>
@@ -3739,13 +3169,10 @@
       <c r="C181">
         <v>71</v>
       </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B182">
         <v>36</v>
@@ -3753,13 +3180,10 @@
       <c r="C182">
         <v>11</v>
       </c>
-      <c r="D182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B183">
         <v>36</v>
@@ -3767,13 +3191,10 @@
       <c r="C183">
         <v>23</v>
       </c>
-      <c r="D183" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B184">
         <v>36</v>
@@ -3781,13 +3202,10 @@
       <c r="C184">
         <v>45</v>
       </c>
-      <c r="D184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B185">
         <v>36</v>
@@ -3795,13 +3213,10 @@
       <c r="C185">
         <v>61</v>
       </c>
-      <c r="D185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B186">
         <v>36</v>
@@ -3809,13 +3224,10 @@
       <c r="C186">
         <v>93</v>
       </c>
-      <c r="D186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B187">
         <v>37</v>
@@ -3823,13 +3235,10 @@
       <c r="C187">
         <v>15</v>
       </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B188">
         <v>37</v>
@@ -3837,13 +3246,10 @@
       <c r="C188">
         <v>27</v>
       </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B189">
         <v>37</v>
@@ -3851,13 +3257,10 @@
       <c r="C189">
         <v>33</v>
       </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B190">
         <v>37</v>
@@ -3865,13 +3268,10 @@
       <c r="C190">
         <v>47</v>
       </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B191">
         <v>37</v>
@@ -3879,13 +3279,10 @@
       <c r="C191">
         <v>55</v>
       </c>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B192">
         <v>37</v>
@@ -3893,13 +3290,10 @@
       <c r="C192">
         <v>93</v>
       </c>
-      <c r="D192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B193">
         <v>37</v>
@@ -3907,13 +3301,10 @@
       <c r="C193">
         <v>95</v>
       </c>
-      <c r="D193" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B194">
         <v>37</v>
@@ -3921,13 +3312,10 @@
       <c r="C194">
         <v>97</v>
       </c>
-      <c r="D194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B195">
         <v>37</v>
@@ -3935,13 +3323,10 @@
       <c r="C195">
         <v>153</v>
       </c>
-      <c r="D195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B196">
         <v>37</v>
@@ -3949,13 +3334,10 @@
       <c r="C196">
         <v>173</v>
       </c>
-      <c r="D196" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B197">
         <v>37</v>
@@ -3963,13 +3345,10 @@
       <c r="C197">
         <v>185</v>
       </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B198">
         <v>37</v>
@@ -3977,13 +3356,10 @@
       <c r="C198">
         <v>189</v>
       </c>
-      <c r="D198" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B199">
         <v>37</v>
@@ -3991,13 +3367,10 @@
       <c r="C199">
         <v>189</v>
       </c>
-      <c r="D199" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B200">
         <v>37</v>
@@ -4005,13 +3378,10 @@
       <c r="C200">
         <v>195</v>
       </c>
-      <c r="D200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B201">
         <v>37</v>
@@ -4019,13 +3389,10 @@
       <c r="C201">
         <v>203</v>
       </c>
-      <c r="D201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B202">
         <v>38</v>
@@ -4033,13 +3400,10 @@
       <c r="C202">
         <v>21</v>
       </c>
-      <c r="D202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B203">
         <v>38</v>
@@ -4047,13 +3411,10 @@
       <c r="C203">
         <v>35</v>
       </c>
-      <c r="D203" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B204">
         <v>38</v>
@@ -4061,13 +3422,10 @@
       <c r="C204">
         <v>81</v>
       </c>
-      <c r="D204" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B205">
         <v>38</v>
@@ -4075,13 +3433,10 @@
       <c r="C205">
         <v>83</v>
       </c>
-      <c r="D205" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B206">
         <v>38</v>
@@ -4089,13 +3444,10 @@
       <c r="C206">
         <v>121</v>
       </c>
-      <c r="D206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B207">
         <v>38</v>
@@ -4103,13 +3455,10 @@
       <c r="C207">
         <v>123</v>
       </c>
-      <c r="D207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B208">
         <v>39</v>
@@ -4117,13 +3466,10 @@
       <c r="C208">
         <v>73</v>
       </c>
-      <c r="D208" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B209">
         <v>39</v>
@@ -4131,13 +3477,10 @@
       <c r="C209">
         <v>79</v>
       </c>
-      <c r="D209" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B210">
         <v>39</v>
@@ -4145,13 +3488,10 @@
       <c r="C210">
         <v>107</v>
       </c>
-      <c r="D210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B211">
         <v>39</v>
@@ -4159,13 +3499,10 @@
       <c r="C211">
         <v>155</v>
       </c>
-      <c r="D211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B212">
         <v>39</v>
@@ -4173,13 +3510,10 @@
       <c r="C212">
         <v>159</v>
       </c>
-      <c r="D212" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B213">
         <v>39</v>
@@ -4187,13 +3521,10 @@
       <c r="C213">
         <v>177</v>
       </c>
-      <c r="D213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B214">
         <v>39</v>
@@ -4201,13 +3532,10 @@
       <c r="C214">
         <v>201</v>
       </c>
-      <c r="D214" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B215">
         <v>39</v>
@@ -4215,13 +3543,10 @@
       <c r="C215">
         <v>237</v>
       </c>
-      <c r="D215" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B216">
         <v>39</v>
@@ -4229,13 +3554,10 @@
       <c r="C216">
         <v>243</v>
       </c>
-      <c r="D216" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B217">
         <v>40</v>
@@ -4243,13 +3565,10 @@
       <c r="C217">
         <v>7</v>
       </c>
-      <c r="D217" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B218">
         <v>40</v>
@@ -4257,13 +3576,10 @@
       <c r="C218">
         <v>81</v>
       </c>
-      <c r="D218" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B219">
         <v>40</v>
@@ -4271,13 +3587,10 @@
       <c r="C219">
         <v>139</v>
       </c>
-      <c r="D219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B220">
         <v>40</v>
@@ -4285,13 +3598,10 @@
       <c r="C220">
         <v>145</v>
       </c>
-      <c r="D220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B221">
         <v>40</v>
@@ -4299,13 +3609,10 @@
       <c r="C221">
         <v>149</v>
       </c>
-      <c r="D221" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B222">
         <v>40</v>
@@ -4313,13 +3620,10 @@
       <c r="C222">
         <v>165</v>
       </c>
-      <c r="D222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B223">
         <v>41</v>
@@ -4327,13 +3631,10 @@
       <c r="C223">
         <v>51</v>
       </c>
-      <c r="D223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B224">
         <v>42</v>
@@ -4341,13 +3642,10 @@
       <c r="C224">
         <v>3</v>
       </c>
-      <c r="D224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B225">
         <v>42</v>
@@ -4355,13 +3653,10 @@
       <c r="C225">
         <v>15</v>
       </c>
-      <c r="D225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B226">
         <v>42</v>
@@ -4369,13 +3664,10 @@
       <c r="C226">
         <v>19</v>
       </c>
-      <c r="D226" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B227">
         <v>42</v>
@@ -4383,13 +3675,10 @@
       <c r="C227">
         <v>63</v>
       </c>
-      <c r="D227" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B228">
         <v>42</v>
@@ -4397,13 +3686,10 @@
       <c r="C228">
         <v>137</v>
       </c>
-      <c r="D228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B229">
         <v>42</v>
@@ -4411,13 +3697,10 @@
       <c r="C229">
         <v>141</v>
       </c>
-      <c r="D229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B230">
         <v>42</v>
@@ -4425,13 +3708,10 @@
       <c r="C230">
         <v>165</v>
       </c>
-      <c r="D230" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B231">
         <v>42</v>
@@ -4439,13 +3719,10 @@
       <c r="C231">
         <v>193</v>
       </c>
-      <c r="D231" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B232">
         <v>42</v>
@@ -4453,13 +3730,10 @@
       <c r="C232">
         <v>233</v>
       </c>
-      <c r="D232" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B233">
         <v>42</v>
@@ -4467,13 +3741,10 @@
       <c r="C233">
         <v>241</v>
       </c>
-      <c r="D233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B234">
         <v>42</v>
@@ -4481,13 +3752,10 @@
       <c r="C234">
         <v>247</v>
       </c>
-      <c r="D234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B235">
         <v>43</v>
@@ -4495,13 +3763,10 @@
       <c r="C235">
         <v>3</v>
       </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B236">
         <v>43</v>
@@ -4509,13 +3774,10 @@
       <c r="C236">
         <v>57</v>
       </c>
-      <c r="D236" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B237">
         <v>43</v>
@@ -4523,13 +3785,10 @@
       <c r="C237">
         <v>63</v>
       </c>
-      <c r="D237" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B238">
         <v>43</v>
@@ -4537,13 +3796,10 @@
       <c r="C238">
         <v>83</v>
       </c>
-      <c r="D238" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B239">
         <v>43</v>
@@ -4551,13 +3807,10 @@
       <c r="C239">
         <v>97</v>
       </c>
-      <c r="D239" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B240">
         <v>43</v>
@@ -4565,13 +3818,10 @@
       <c r="C240">
         <v>105</v>
       </c>
-      <c r="D240" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B241">
         <v>43</v>
@@ -4579,13 +3829,10 @@
       <c r="C241">
         <v>115</v>
       </c>
-      <c r="D241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B242">
         <v>43</v>
@@ -4593,13 +3840,10 @@
       <c r="C242">
         <v>119</v>
       </c>
-      <c r="D242" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B243">
         <v>43</v>
@@ -4607,13 +3851,10 @@
       <c r="C243">
         <v>183</v>
       </c>
-      <c r="D243" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B244">
         <v>43</v>
@@ -4621,13 +3862,10 @@
       <c r="C244">
         <v>193</v>
       </c>
-      <c r="D244" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B245">
         <v>43</v>
@@ -4635,13 +3873,10 @@
       <c r="C245">
         <v>197</v>
       </c>
-      <c r="D245" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B246">
         <v>44</v>
@@ -4649,13 +3884,10 @@
       <c r="C246">
         <v>1</v>
       </c>
-      <c r="D246" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B247">
         <v>44</v>
@@ -4663,13 +3895,10 @@
       <c r="C247">
         <v>19</v>
       </c>
-      <c r="D247" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B248">
         <v>44</v>
@@ -4677,13 +3906,10 @@
       <c r="C248">
         <v>77</v>
       </c>
-      <c r="D248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B249">
         <v>45</v>
@@ -4691,13 +3917,10 @@
       <c r="C249">
         <v>9</v>
       </c>
-      <c r="D249" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B250">
         <v>45</v>
@@ -4705,13 +3928,10 @@
       <c r="C250">
         <v>17</v>
       </c>
-      <c r="D250" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B251">
         <v>45</v>
@@ -4719,22 +3939,16 @@
       <c r="C251">
         <v>55</v>
       </c>
-      <c r="D251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B252">
         <v>45</v>
       </c>
       <c r="C252">
         <v>65</v>
-      </c>
-      <c r="D252" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/annotation/irr_selina_test.xlsx
+++ b/annotation/irr_selina_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80603C4F-7B20-4232-9799-E5F38EF68F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D528D7-AF0B-5D4C-A993-EB337F4D1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="290">
   <si>
     <t>utterance</t>
   </si>
@@ -737,6 +737,159 @@
   </si>
   <si>
     <t>info_need</t>
+  </si>
+  <si>
+    <t>Ingredients in Recipe</t>
+  </si>
+  <si>
+    <t>Amount of Ingredients</t>
+  </si>
+  <si>
+    <t>Ingredient - Proper Usage</t>
+  </si>
+  <si>
+    <t>Ingredient addition point in time</t>
+  </si>
+  <si>
+    <t>Steaming Time</t>
+  </si>
+  <si>
+    <t>Cooking technique - Ingredient</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Remaining Time</t>
+  </si>
+  <si>
+    <t>Preparation Steps</t>
+  </si>
+  <si>
+    <t>Ingredient - Texture/Appearance</t>
+  </si>
+  <si>
+    <t>Recipe Summary</t>
+  </si>
+  <si>
+    <t>Picture Request</t>
+  </si>
+  <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t>Ingredients Substitution</t>
+  </si>
+  <si>
+    <t>Preparation of Ingredient</t>
+  </si>
+  <si>
+    <t>Preparation Order</t>
+  </si>
+  <si>
+    <t>Equipment Definition</t>
+  </si>
+  <si>
+    <t>Knowledge Ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient eatability</t>
+  </si>
+  <si>
+    <t>Ingredient Type</t>
+  </si>
+  <si>
+    <t>Roasting Time</t>
+  </si>
+  <si>
+    <t>Further Processing of part of meal</t>
+  </si>
+  <si>
+    <t>Amount Unit</t>
+  </si>
+  <si>
+    <t>Recipe Retrieval</t>
+  </si>
+  <si>
+    <t>Knowledge Taste</t>
+  </si>
+  <si>
+    <t>Knowledge - Standard Amount</t>
+  </si>
+  <si>
+    <t>Question regarding experiment</t>
+  </si>
+  <si>
+    <t>Cooking technique - Ingredient Addition/Composition</t>
+  </si>
+  <si>
+    <t>Equipment needed</t>
+  </si>
+  <si>
+    <t>Request for Ratings</t>
+  </si>
+  <si>
+    <t>Proper Storage of Ingredient</t>
+  </si>
+  <si>
+    <t>Equipment Type</t>
+  </si>
+  <si>
+    <t>Temperature Reassurance</t>
+  </si>
+  <si>
+    <t>Soaking Time</t>
+  </si>
+  <si>
+    <t>Amount Adaption</t>
+  </si>
+  <si>
+    <t>Read out next amount of Ingredient</t>
+  </si>
+  <si>
+    <t>Cooking technique - Reassurance</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Ingredient composition</t>
+  </si>
+  <si>
+    <t>Request for Information Source</t>
+  </si>
+  <si>
+    <t>Passed Time</t>
+  </si>
+  <si>
+    <t>Ingredient Substitution</t>
+  </si>
+  <si>
+    <t>Preparation finished reassurance</t>
+  </si>
+  <si>
+    <t>Typical Meal</t>
+  </si>
+  <si>
+    <t>Cooking time</t>
+  </si>
+  <si>
+    <t>Meal Comparison</t>
+  </si>
+  <si>
+    <t>Ingredient addition to equipment</t>
+  </si>
+  <si>
+    <t>Technical methods</t>
+  </si>
+  <si>
+    <t>Cooking technique - Next Step</t>
+  </si>
+  <si>
+    <t>Amount of Persons</t>
+  </si>
+  <si>
+    <t>Amount of Ingredient after Substitution</t>
   </si>
 </sst>
 </file>
@@ -1166,17 +1319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1343,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1353,11 @@
       <c r="C2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1211,8 +1367,11 @@
       <c r="C3">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1222,8 +1381,11 @@
       <c r="C4">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,8 +1395,11 @@
       <c r="C5">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,8 +1409,11 @@
       <c r="C6">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1255,8 +1423,11 @@
       <c r="C7">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1437,11 @@
       <c r="C8">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,8 +1451,11 @@
       <c r="C9">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1465,11 @@
       <c r="C10">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,8 +1479,11 @@
       <c r="C11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,8 +1493,11 @@
       <c r="C12">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1321,8 +1507,11 @@
       <c r="C13">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1521,11 @@
       <c r="C14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,8 +1535,11 @@
       <c r="C15">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1549,11 @@
       <c r="C16">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,8 +1563,11 @@
       <c r="C17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1376,8 +1577,11 @@
       <c r="C18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +1591,11 @@
       <c r="C19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1398,8 +1605,11 @@
       <c r="C20">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1409,8 +1619,11 @@
       <c r="C21">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1420,8 +1633,11 @@
       <c r="C22">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1431,8 +1647,11 @@
       <c r="C23">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,8 +1661,11 @@
       <c r="C24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1453,8 +1675,11 @@
       <c r="C25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,8 +1689,11 @@
       <c r="C26">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1475,8 +1703,11 @@
       <c r="C27">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1486,8 +1717,11 @@
       <c r="C28">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1497,8 +1731,11 @@
       <c r="C29">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1508,8 +1745,11 @@
       <c r="C30">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1519,8 +1759,11 @@
       <c r="C31">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,8 +1773,11 @@
       <c r="C32">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1541,8 +1787,11 @@
       <c r="C33">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1552,8 +1801,11 @@
       <c r="C34">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,8 +1815,11 @@
       <c r="C35">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1574,8 +1829,11 @@
       <c r="C36">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1585,8 +1843,11 @@
       <c r="C37">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1596,8 +1857,11 @@
       <c r="C38">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1607,8 +1871,11 @@
       <c r="C39">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1618,8 +1885,11 @@
       <c r="C40">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1629,8 +1899,11 @@
       <c r="C41">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1640,8 +1913,11 @@
       <c r="C42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +1927,11 @@
       <c r="C43">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1662,8 +1941,11 @@
       <c r="C44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1673,8 +1955,11 @@
       <c r="C45">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1684,8 +1969,11 @@
       <c r="C46">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1695,8 +1983,11 @@
       <c r="C47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1706,8 +1997,11 @@
       <c r="C48">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1717,8 +2011,11 @@
       <c r="C49">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1728,8 +2025,11 @@
       <c r="C50">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1739,8 +2039,11 @@
       <c r="C51">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1750,8 +2053,11 @@
       <c r="C52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1761,8 +2067,11 @@
       <c r="C53">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1772,8 +2081,11 @@
       <c r="C54">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1783,8 +2095,11 @@
       <c r="C55">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1794,8 +2109,11 @@
       <c r="C56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1805,8 +2123,11 @@
       <c r="C57">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1816,8 +2137,11 @@
       <c r="C58">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -1827,8 +2151,11 @@
       <c r="C59">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -1838,8 +2165,11 @@
       <c r="C60">
         <v>168</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -1849,8 +2179,11 @@
       <c r="C61">
         <v>216</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -1860,8 +2193,11 @@
       <c r="C62">
         <v>220</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -1871,8 +2207,11 @@
       <c r="C63">
         <v>248</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -1882,8 +2221,11 @@
       <c r="C64">
         <v>258</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -1893,8 +2235,11 @@
       <c r="C65">
         <v>264</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -1904,8 +2249,11 @@
       <c r="C66">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -1915,8 +2263,11 @@
       <c r="C67">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1926,8 +2277,11 @@
       <c r="C68">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -1937,8 +2291,11 @@
       <c r="C69">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -1948,8 +2305,11 @@
       <c r="C70">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -1959,8 +2319,11 @@
       <c r="C71">
         <v>192</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1970,8 +2333,11 @@
       <c r="C72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -1981,8 +2347,11 @@
       <c r="C73">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -1992,8 +2361,11 @@
       <c r="C74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2003,8 +2375,11 @@
       <c r="C75">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2014,8 +2389,11 @@
       <c r="C76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2025,8 +2403,11 @@
       <c r="C77">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
@@ -2036,8 +2417,11 @@
       <c r="C78">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2047,8 +2431,11 @@
       <c r="C79">
         <v>101</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -2058,8 +2445,11 @@
       <c r="C80">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2069,8 +2459,11 @@
       <c r="C81">
         <v>167</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -2080,8 +2473,11 @@
       <c r="C82">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2091,8 +2487,11 @@
       <c r="C83">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2102,8 +2501,11 @@
       <c r="C84">
         <v>225</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -2113,8 +2515,11 @@
       <c r="C85">
         <v>227</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2124,8 +2529,11 @@
       <c r="C86">
         <v>291</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2135,8 +2543,11 @@
       <c r="C87">
         <v>295</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2146,8 +2557,11 @@
       <c r="C88">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2157,8 +2571,11 @@
       <c r="C89">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2168,8 +2585,11 @@
       <c r="C90">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
@@ -2179,8 +2599,11 @@
       <c r="C91">
         <v>52</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
@@ -2190,8 +2613,11 @@
       <c r="C92">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -2201,8 +2627,11 @@
       <c r="C93">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -2212,8 +2641,11 @@
       <c r="C94">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
@@ -2223,8 +2655,11 @@
       <c r="C95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -2234,8 +2669,11 @@
       <c r="C96">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
@@ -2245,8 +2683,11 @@
       <c r="C97">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
@@ -2256,8 +2697,11 @@
       <c r="C98">
         <v>142</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -2267,8 +2711,11 @@
       <c r="C99">
         <v>172</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -2278,8 +2725,11 @@
       <c r="C100">
         <v>234</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -2289,8 +2739,11 @@
       <c r="C101">
         <v>234</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
@@ -2300,8 +2753,11 @@
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
@@ -2311,8 +2767,11 @@
       <c r="C103">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -2322,8 +2781,11 @@
       <c r="C104">
         <v>43</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -2333,8 +2795,11 @@
       <c r="C105">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>101</v>
       </c>
@@ -2344,8 +2809,11 @@
       <c r="C106">
         <v>61</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>102</v>
       </c>
@@ -2355,8 +2823,11 @@
       <c r="C107">
         <v>63</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>103</v>
       </c>
@@ -2366,8 +2837,11 @@
       <c r="C108">
         <v>87</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>104</v>
       </c>
@@ -2377,8 +2851,11 @@
       <c r="C109">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>105</v>
       </c>
@@ -2388,8 +2865,11 @@
       <c r="C110">
         <v>141</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>106</v>
       </c>
@@ -2399,8 +2879,11 @@
       <c r="C111">
         <v>211</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
@@ -2410,8 +2893,11 @@
       <c r="C112">
         <v>257</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>108</v>
       </c>
@@ -2421,8 +2907,11 @@
       <c r="C113">
         <v>28</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>109</v>
       </c>
@@ -2432,8 +2921,11 @@
       <c r="C114">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>110</v>
       </c>
@@ -2443,8 +2935,11 @@
       <c r="C115">
         <v>44</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>111</v>
       </c>
@@ -2454,8 +2949,11 @@
       <c r="C116">
         <v>72</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>112</v>
       </c>
@@ -2465,8 +2963,11 @@
       <c r="C117">
         <v>118</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
@@ -2476,8 +2977,11 @@
       <c r="C118">
         <v>160</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>114</v>
       </c>
@@ -2487,8 +2991,11 @@
       <c r="C119">
         <v>71</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>115</v>
       </c>
@@ -2498,8 +3005,11 @@
       <c r="C120">
         <v>111</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
@@ -2509,8 +3019,11 @@
       <c r="C121">
         <v>123</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>117</v>
       </c>
@@ -2520,8 +3033,11 @@
       <c r="C122">
         <v>133</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>118</v>
       </c>
@@ -2531,8 +3047,11 @@
       <c r="C123">
         <v>155</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>119</v>
       </c>
@@ -2542,8 +3061,11 @@
       <c r="C124">
         <v>161</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
@@ -2553,8 +3075,11 @@
       <c r="C125">
         <v>165</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -2564,8 +3089,11 @@
       <c r="C126">
         <v>169</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -2575,8 +3103,11 @@
       <c r="C127">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>123</v>
       </c>
@@ -2586,8 +3117,11 @@
       <c r="C128">
         <v>56</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
@@ -2597,8 +3131,11 @@
       <c r="C129">
         <v>102</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
@@ -2608,8 +3145,11 @@
       <c r="C130">
         <v>114</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +3159,11 @@
       <c r="C131">
         <v>42</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -2630,8 +3173,11 @@
       <c r="C132">
         <v>82</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -2641,8 +3187,11 @@
       <c r="C133">
         <v>96</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
@@ -2652,8 +3201,11 @@
       <c r="C134">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
@@ -2663,8 +3215,11 @@
       <c r="C135">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>128</v>
       </c>
@@ -2674,8 +3229,11 @@
       <c r="C136">
         <v>186</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
@@ -2685,8 +3243,11 @@
       <c r="C137">
         <v>238</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
@@ -2696,8 +3257,11 @@
       <c r="C138">
         <v>302</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>131</v>
       </c>
@@ -2707,8 +3271,11 @@
       <c r="C139">
         <v>314</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>132</v>
       </c>
@@ -2718,8 +3285,11 @@
       <c r="C140">
         <v>340</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>133</v>
       </c>
@@ -2729,8 +3299,11 @@
       <c r="C141">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>134</v>
       </c>
@@ -2740,8 +3313,11 @@
       <c r="C142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>135</v>
       </c>
@@ -2751,8 +3327,11 @@
       <c r="C143">
         <v>55</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>136</v>
       </c>
@@ -2762,8 +3341,11 @@
       <c r="C144">
         <v>75</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
@@ -2773,8 +3355,11 @@
       <c r="C145">
         <v>93</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -2784,8 +3369,11 @@
       <c r="C146">
         <v>105</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>139</v>
       </c>
@@ -2795,8 +3383,11 @@
       <c r="C147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>140</v>
       </c>
@@ -2806,8 +3397,11 @@
       <c r="C148">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>56</v>
       </c>
@@ -2817,8 +3411,11 @@
       <c r="C149">
         <v>40</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>141</v>
       </c>
@@ -2828,8 +3425,11 @@
       <c r="C150">
         <v>48</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -2839,8 +3439,11 @@
       <c r="C151">
         <v>52</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>142</v>
       </c>
@@ -2850,8 +3453,11 @@
       <c r="C152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>143</v>
       </c>
@@ -2861,8 +3467,11 @@
       <c r="C153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>144</v>
       </c>
@@ -2872,8 +3481,11 @@
       <c r="C154">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
@@ -2883,8 +3495,11 @@
       <c r="C155">
         <v>113</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>146</v>
       </c>
@@ -2894,8 +3509,11 @@
       <c r="C156">
         <v>185</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
@@ -2905,8 +3523,11 @@
       <c r="C157">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>148</v>
       </c>
@@ -2916,8 +3537,11 @@
       <c r="C158">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
@@ -2927,8 +3551,11 @@
       <c r="C159">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>150</v>
       </c>
@@ -2938,8 +3565,11 @@
       <c r="C160">
         <v>31</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
@@ -2949,8 +3579,11 @@
       <c r="C161">
         <v>35</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>152</v>
       </c>
@@ -2960,8 +3593,11 @@
       <c r="C162">
         <v>81</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -2971,8 +3607,11 @@
       <c r="C163">
         <v>101</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>154</v>
       </c>
@@ -2982,8 +3621,11 @@
       <c r="C164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>155</v>
       </c>
@@ -2993,8 +3635,11 @@
       <c r="C165">
         <v>67</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>56</v>
       </c>
@@ -3004,8 +3649,11 @@
       <c r="C166">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>156</v>
       </c>
@@ -3015,8 +3663,11 @@
       <c r="C167">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>157</v>
       </c>
@@ -3026,8 +3677,11 @@
       <c r="C168">
         <v>27</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>158</v>
       </c>
@@ -3037,8 +3691,11 @@
       <c r="C169">
         <v>31</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>159</v>
       </c>
@@ -3048,8 +3705,11 @@
       <c r="C170">
         <v>49</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>160</v>
       </c>
@@ -3059,8 +3719,11 @@
       <c r="C171">
         <v>59</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>161</v>
       </c>
@@ -3070,8 +3733,11 @@
       <c r="C172">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -3081,8 +3747,11 @@
       <c r="C173">
         <v>93</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -3092,8 +3761,11 @@
       <c r="C174">
         <v>155</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>164</v>
       </c>
@@ -3103,8 +3775,11 @@
       <c r="C175">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>165</v>
       </c>
@@ -3114,8 +3789,11 @@
       <c r="C176">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>166</v>
       </c>
@@ -3125,8 +3803,11 @@
       <c r="C177">
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>167</v>
       </c>
@@ -3136,8 +3817,11 @@
       <c r="C178">
         <v>41</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>168</v>
       </c>
@@ -3147,8 +3831,11 @@
       <c r="C179">
         <v>47</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>169</v>
       </c>
@@ -3158,8 +3845,11 @@
       <c r="C180">
         <v>65</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>170</v>
       </c>
@@ -3169,8 +3859,11 @@
       <c r="C181">
         <v>71</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>171</v>
       </c>
@@ -3180,8 +3873,11 @@
       <c r="C182">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>172</v>
       </c>
@@ -3191,8 +3887,11 @@
       <c r="C183">
         <v>23</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
@@ -3202,8 +3901,11 @@
       <c r="C184">
         <v>45</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>174</v>
       </c>
@@ -3213,8 +3915,11 @@
       <c r="C185">
         <v>61</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>175</v>
       </c>
@@ -3224,8 +3929,11 @@
       <c r="C186">
         <v>93</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>176</v>
       </c>
@@ -3235,8 +3943,11 @@
       <c r="C187">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>177</v>
       </c>
@@ -3246,8 +3957,11 @@
       <c r="C188">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>178</v>
       </c>
@@ -3257,8 +3971,11 @@
       <c r="C189">
         <v>33</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>179</v>
       </c>
@@ -3268,8 +3985,11 @@
       <c r="C190">
         <v>47</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>180</v>
       </c>
@@ -3279,8 +3999,11 @@
       <c r="C191">
         <v>55</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
@@ -3290,8 +4013,11 @@
       <c r="C192">
         <v>93</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
@@ -3301,8 +4027,11 @@
       <c r="C193">
         <v>95</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
@@ -3312,8 +4041,11 @@
       <c r="C194">
         <v>97</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>184</v>
       </c>
@@ -3323,8 +4055,11 @@
       <c r="C195">
         <v>153</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>185</v>
       </c>
@@ -3334,8 +4069,11 @@
       <c r="C196">
         <v>173</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>186</v>
       </c>
@@ -3345,8 +4083,11 @@
       <c r="C197">
         <v>185</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>187</v>
       </c>
@@ -3356,8 +4097,11 @@
       <c r="C198">
         <v>189</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>188</v>
       </c>
@@ -3367,8 +4111,11 @@
       <c r="C199">
         <v>189</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>189</v>
       </c>
@@ -3378,8 +4125,11 @@
       <c r="C200">
         <v>195</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>190</v>
       </c>
@@ -3389,8 +4139,11 @@
       <c r="C201">
         <v>203</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>191</v>
       </c>
@@ -3400,8 +4153,11 @@
       <c r="C202">
         <v>21</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>192</v>
       </c>
@@ -3411,8 +4167,11 @@
       <c r="C203">
         <v>35</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>193</v>
       </c>
@@ -3422,8 +4181,11 @@
       <c r="C204">
         <v>81</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>194</v>
       </c>
@@ -3433,8 +4195,11 @@
       <c r="C205">
         <v>83</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>195</v>
       </c>
@@ -3444,8 +4209,11 @@
       <c r="C206">
         <v>121</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>196</v>
       </c>
@@ -3455,8 +4223,11 @@
       <c r="C207">
         <v>123</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>197</v>
       </c>
@@ -3466,8 +4237,11 @@
       <c r="C208">
         <v>73</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>198</v>
       </c>
@@ -3477,8 +4251,11 @@
       <c r="C209">
         <v>79</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>199</v>
       </c>
@@ -3488,8 +4265,11 @@
       <c r="C210">
         <v>107</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>200</v>
       </c>
@@ -3499,8 +4279,11 @@
       <c r="C211">
         <v>155</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>201</v>
       </c>
@@ -3510,8 +4293,11 @@
       <c r="C212">
         <v>159</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>202</v>
       </c>
@@ -3521,8 +4307,11 @@
       <c r="C213">
         <v>177</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>203</v>
       </c>
@@ -3532,8 +4321,11 @@
       <c r="C214">
         <v>201</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>204</v>
       </c>
@@ -3543,8 +4335,11 @@
       <c r="C215">
         <v>237</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>205</v>
       </c>
@@ -3554,8 +4349,11 @@
       <c r="C216">
         <v>243</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>206</v>
       </c>
@@ -3565,8 +4363,11 @@
       <c r="C217">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>207</v>
       </c>
@@ -3576,8 +4377,11 @@
       <c r="C218">
         <v>81</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>208</v>
       </c>
@@ -3587,8 +4391,11 @@
       <c r="C219">
         <v>139</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>209</v>
       </c>
@@ -3598,8 +4405,11 @@
       <c r="C220">
         <v>145</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>210</v>
       </c>
@@ -3609,8 +4419,11 @@
       <c r="C221">
         <v>149</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>211</v>
       </c>
@@ -3620,8 +4433,11 @@
       <c r="C222">
         <v>165</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>212</v>
       </c>
@@ -3631,8 +4447,11 @@
       <c r="C223">
         <v>51</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>165</v>
       </c>
@@ -3642,8 +4461,11 @@
       <c r="C224">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>213</v>
       </c>
@@ -3653,8 +4475,11 @@
       <c r="C225">
         <v>15</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>165</v>
       </c>
@@ -3664,8 +4489,11 @@
       <c r="C226">
         <v>19</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>214</v>
       </c>
@@ -3675,8 +4503,11 @@
       <c r="C227">
         <v>63</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>215</v>
       </c>
@@ -3686,8 +4517,11 @@
       <c r="C228">
         <v>137</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>216</v>
       </c>
@@ -3697,8 +4531,11 @@
       <c r="C229">
         <v>141</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>56</v>
       </c>
@@ -3708,8 +4545,11 @@
       <c r="C230">
         <v>165</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>217</v>
       </c>
@@ -3719,8 +4559,11 @@
       <c r="C231">
         <v>193</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>218</v>
       </c>
@@ -3730,8 +4573,11 @@
       <c r="C232">
         <v>233</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>219</v>
       </c>
@@ -3741,8 +4587,11 @@
       <c r="C233">
         <v>241</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -3752,8 +4601,11 @@
       <c r="C234">
         <v>247</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>221</v>
       </c>
@@ -3763,8 +4615,11 @@
       <c r="C235">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>222</v>
       </c>
@@ -3774,8 +4629,11 @@
       <c r="C236">
         <v>57</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>223</v>
       </c>
@@ -3785,8 +4643,11 @@
       <c r="C237">
         <v>63</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>224</v>
       </c>
@@ -3796,8 +4657,11 @@
       <c r="C238">
         <v>83</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>225</v>
       </c>
@@ -3807,8 +4671,11 @@
       <c r="C239">
         <v>97</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>226</v>
       </c>
@@ -3818,8 +4685,11 @@
       <c r="C240">
         <v>105</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -3829,8 +4699,11 @@
       <c r="C241">
         <v>115</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>227</v>
       </c>
@@ -3840,8 +4713,11 @@
       <c r="C242">
         <v>119</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>228</v>
       </c>
@@ -3851,8 +4727,11 @@
       <c r="C243">
         <v>183</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>229</v>
       </c>
@@ -3862,8 +4741,11 @@
       <c r="C244">
         <v>193</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>230</v>
       </c>
@@ -3873,8 +4755,11 @@
       <c r="C245">
         <v>197</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>231</v>
       </c>
@@ -3884,8 +4769,11 @@
       <c r="C246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>232</v>
       </c>
@@ -3895,8 +4783,11 @@
       <c r="C247">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>233</v>
       </c>
@@ -3906,8 +4797,11 @@
       <c r="C248">
         <v>77</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>234</v>
       </c>
@@ -3917,8 +4811,11 @@
       <c r="C249">
         <v>9</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>235</v>
       </c>
@@ -3928,8 +4825,11 @@
       <c r="C250">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>236</v>
       </c>
@@ -3939,8 +4839,11 @@
       <c r="C251">
         <v>55</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>237</v>
       </c>
@@ -3949,6 +4852,9 @@
       </c>
       <c r="C252">
         <v>65</v>
+      </c>
+      <c r="D252" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/annotation/irr_selina_test.xlsx
+++ b/annotation/irr_selina_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D528D7-AF0B-5D4C-A993-EB337F4D1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713C79D-B1F6-894F-8334-D35A772B704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1396,7 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1452,7 +1452,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
         <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2642,7 +2642,7 @@
         <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>257</v>
       </c>
       <c r="D112" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>165</v>
       </c>
       <c r="D125" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>203</v>
       </c>
       <c r="D201" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="32" x14ac:dyDescent="0.2">

--- a/annotation/irr_selina_test.xlsx
+++ b/annotation/irr_selina_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713C79D-B1F6-894F-8334-D35A772B704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168EEE5C-F346-4CE3-A534-F5D35ABD8974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="297">
   <si>
     <t>utterance</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Ok. Die Sahne dazu Der ganze Becher oder? Wie viel Sahne muss da rein?</t>
   </si>
   <si>
-    <t>info_need</t>
-  </si>
-  <si>
     <t>Ingredients in Recipe</t>
   </si>
   <si>
@@ -890,6 +887,30 @@
   </si>
   <si>
     <t>Amount of Ingredient after Substitution</t>
+  </si>
+  <si>
+    <t>Ingredient - Texture,Appearance</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>System Abilities</t>
+  </si>
+  <si>
+    <t>Knowledge - Reassurance explicit</t>
+  </si>
+  <si>
+    <t>Cooking Time Reassurance</t>
+  </si>
+  <si>
+    <t>Temperature explicit</t>
+  </si>
+  <si>
+    <t>selina</t>
+  </si>
+  <si>
+    <t>alex</t>
   </si>
 </sst>
 </file>
@@ -1020,13 +1041,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{248E5168-3398-4DBE-8134-6CD659A0E690}" name="Tabelle1" displayName="Tabelle1" ref="A1:D252" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D252" xr:uid="{4B28D97D-AFEE-4B0C-8239-046C62C42E13}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{248E5168-3398-4DBE-8134-6CD659A0E690}" name="Tabelle1" displayName="Tabelle1" ref="A1:E252" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:E252" xr:uid="{4B28D97D-AFEE-4B0C-8239-046C62C42E13}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{31457BF5-D8D6-45B2-9B3F-D8DC3EBC8BC5}" name="utterance" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9712B26-D278-4FE0-B40E-7793F51BD9F7}" name="tp"/>
     <tableColumn id="3" xr3:uid="{9E91CCAD-D5CF-42E4-9D07-78B180355A60}" name="absatz"/>
-    <tableColumn id="4" xr3:uid="{909F4B0F-C10D-4FBE-BC6C-C732455CD455}" name="info_need"/>
+    <tableColumn id="4" xr3:uid="{909F4B0F-C10D-4FBE-BC6C-C732455CD455}" name="selina"/>
+    <tableColumn id="5" xr3:uid="{650B057D-F02F-4D76-B703-801B7E76F6A1}" name="alex"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1317,19 +1339,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1340,10 +1363,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1354,10 +1380,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1368,10 +1397,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1382,10 +1414,13 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1396,10 +1431,13 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1410,10 +1448,13 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,10 +1465,13 @@
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1438,10 +1482,13 @@
         <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1452,10 +1499,13 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,10 +1516,13 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1480,10 +1533,13 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1494,10 +1550,13 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1508,10 +1567,13 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,10 +1584,13 @@
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,10 +1601,13 @@
         <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1550,10 +1618,13 @@
         <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,10 +1635,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1578,10 +1652,13 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,10 +1669,13 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1606,10 +1686,13 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1620,10 +1703,13 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,10 +1720,13 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1648,10 +1737,13 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,10 +1754,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1676,10 +1771,13 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1690,10 +1788,13 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1704,10 +1805,13 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1718,10 +1822,13 @@
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1732,10 +1839,13 @@
         <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1746,10 +1856,13 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="E30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1760,10 +1873,13 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,10 +1890,13 @@
         <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1788,10 +1907,13 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1802,10 +1924,13 @@
         <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1816,10 +1941,13 @@
         <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1830,10 +1958,13 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,10 +1975,13 @@
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1858,10 +1992,13 @@
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1872,10 +2009,13 @@
         <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1886,10 +2026,13 @@
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1900,10 +2043,13 @@
         <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1914,10 +2060,13 @@
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1928,10 +2077,13 @@
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,10 +2094,13 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1956,10 +2111,13 @@
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1970,10 +2128,13 @@
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,10 +2145,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1998,10 +2162,13 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2012,10 +2179,13 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2026,10 +2196,13 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2040,10 +2213,13 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2054,10 +2230,13 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2068,10 +2247,13 @@
         <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2082,10 +2264,13 @@
         <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2096,10 +2281,13 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,10 +2298,13 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2124,10 +2315,13 @@
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2138,10 +2332,13 @@
         <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2152,10 +2349,13 @@
         <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2166,10 +2366,13 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2180,10 +2383,13 @@
         <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2194,10 +2400,13 @@
         <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="E62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2208,10 +2417,13 @@
         <v>248</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2222,10 +2434,13 @@
         <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="E64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2236,10 +2451,13 @@
         <v>264</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2250,10 +2468,13 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2264,10 +2485,13 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="E67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2278,10 +2502,13 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2292,10 +2519,13 @@
         <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2306,10 +2536,13 @@
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="E70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2320,10 +2553,13 @@
         <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2334,10 +2570,13 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2348,10 +2587,13 @@
         <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2362,10 +2604,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2376,10 +2621,13 @@
         <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2390,10 +2638,13 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2404,10 +2655,13 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
@@ -2418,10 +2672,13 @@
         <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="E78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2432,10 +2689,13 @@
         <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -2446,10 +2706,13 @@
         <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2460,10 +2723,13 @@
         <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -2474,10 +2740,13 @@
         <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2488,10 +2757,13 @@
         <v>203</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2502,10 +2774,13 @@
         <v>225</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -2516,10 +2791,13 @@
         <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2530,10 +2808,13 @@
         <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2544,10 +2825,13 @@
         <v>295</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2558,10 +2842,13 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2572,10 +2859,13 @@
         <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2586,10 +2876,13 @@
         <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
@@ -2600,10 +2893,13 @@
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
@@ -2614,10 +2910,13 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E92" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -2628,10 +2927,13 @@
         <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -2642,10 +2944,13 @@
         <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
@@ -2656,10 +2961,13 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -2670,10 +2978,13 @@
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
@@ -2684,10 +2995,13 @@
         <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E97" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
@@ -2698,10 +3012,13 @@
         <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="E98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -2712,10 +3029,13 @@
         <v>172</v>
       </c>
       <c r="D99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -2726,10 +3046,13 @@
         <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E100" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -2740,10 +3063,13 @@
         <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
@@ -2754,10 +3080,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E102" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
@@ -2768,10 +3097,13 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -2782,10 +3114,13 @@
         <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -2796,10 +3131,13 @@
         <v>49</v>
       </c>
       <c r="D105" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E105" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>101</v>
       </c>
@@ -2810,10 +3148,13 @@
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>102</v>
       </c>
@@ -2824,10 +3165,13 @@
         <v>63</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>103</v>
       </c>
@@ -2838,10 +3182,13 @@
         <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>104</v>
       </c>
@@ -2852,10 +3199,13 @@
         <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>105</v>
       </c>
@@ -2866,10 +3216,13 @@
         <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>106</v>
       </c>
@@ -2880,10 +3233,13 @@
         <v>211</v>
       </c>
       <c r="D111" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
@@ -2894,10 +3250,13 @@
         <v>257</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>108</v>
       </c>
@@ -2908,10 +3267,13 @@
         <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>109</v>
       </c>
@@ -2922,10 +3284,13 @@
         <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>110</v>
       </c>
@@ -2936,10 +3301,13 @@
         <v>44</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E115" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>111</v>
       </c>
@@ -2950,10 +3318,13 @@
         <v>72</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>112</v>
       </c>
@@ -2964,10 +3335,13 @@
         <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
@@ -2978,10 +3352,13 @@
         <v>160</v>
       </c>
       <c r="D118" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="E118" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>114</v>
       </c>
@@ -2992,10 +3369,13 @@
         <v>71</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>115</v>
       </c>
@@ -3006,10 +3386,13 @@
         <v>111</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="E120" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
@@ -3020,10 +3403,13 @@
         <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>117</v>
       </c>
@@ -3034,10 +3420,13 @@
         <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>118</v>
       </c>
@@ -3048,10 +3437,13 @@
         <v>155</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>119</v>
       </c>
@@ -3062,10 +3454,13 @@
         <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="E124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
@@ -3076,10 +3471,13 @@
         <v>165</v>
       </c>
       <c r="D125" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -3090,10 +3488,13 @@
         <v>169</v>
       </c>
       <c r="D126" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E126" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -3104,10 +3505,13 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>123</v>
       </c>
@@ -3118,10 +3522,13 @@
         <v>56</v>
       </c>
       <c r="D128" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="E128" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
@@ -3132,10 +3539,13 @@
         <v>102</v>
       </c>
       <c r="D129" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
@@ -3146,10 +3556,13 @@
         <v>114</v>
       </c>
       <c r="D130" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -3160,10 +3573,13 @@
         <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -3174,10 +3590,13 @@
         <v>82</v>
       </c>
       <c r="D132" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="E132" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -3188,10 +3607,13 @@
         <v>96</v>
       </c>
       <c r="D133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E133" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
@@ -3202,10 +3624,13 @@
         <v>126</v>
       </c>
       <c r="D134" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E134" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
@@ -3216,10 +3641,13 @@
         <v>152</v>
       </c>
       <c r="D135" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="E135" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>128</v>
       </c>
@@ -3230,10 +3658,13 @@
         <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
@@ -3244,10 +3675,13 @@
         <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
@@ -3258,10 +3692,13 @@
         <v>302</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E138" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>131</v>
       </c>
@@ -3272,10 +3709,13 @@
         <v>314</v>
       </c>
       <c r="D139" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>132</v>
       </c>
@@ -3286,10 +3726,13 @@
         <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>133</v>
       </c>
@@ -3300,10 +3743,13 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>134</v>
       </c>
@@ -3314,10 +3760,13 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="E142" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>135</v>
       </c>
@@ -3328,10 +3777,13 @@
         <v>55</v>
       </c>
       <c r="D143" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E143" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>136</v>
       </c>
@@ -3342,10 +3794,13 @@
         <v>75</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="E144" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
@@ -3356,10 +3811,13 @@
         <v>93</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E145" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -3370,10 +3828,13 @@
         <v>105</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="E146" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>139</v>
       </c>
@@ -3384,10 +3845,13 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E147" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>140</v>
       </c>
@@ -3398,10 +3862,13 @@
         <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="E148" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>56</v>
       </c>
@@ -3412,10 +3879,13 @@
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E149" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>141</v>
       </c>
@@ -3426,10 +3896,13 @@
         <v>48</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E150" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3440,10 +3913,13 @@
         <v>52</v>
       </c>
       <c r="D151" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>142</v>
       </c>
@@ -3454,10 +3930,13 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E152" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>143</v>
       </c>
@@ -3468,10 +3947,13 @@
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E153" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>144</v>
       </c>
@@ -3482,10 +3964,13 @@
         <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E154" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
@@ -3496,10 +3981,13 @@
         <v>113</v>
       </c>
       <c r="D155" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E155" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>146</v>
       </c>
@@ -3510,10 +3998,13 @@
         <v>185</v>
       </c>
       <c r="D156" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E156" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
@@ -3524,10 +4015,13 @@
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>148</v>
       </c>
@@ -3538,10 +4032,13 @@
         <v>44</v>
       </c>
       <c r="D158" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E158" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
@@ -3552,10 +4049,13 @@
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>150</v>
       </c>
@@ -3566,10 +4066,13 @@
         <v>31</v>
       </c>
       <c r="D160" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="E160" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
@@ -3580,10 +4083,13 @@
         <v>35</v>
       </c>
       <c r="D161" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E161" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>152</v>
       </c>
@@ -3594,10 +4100,13 @@
         <v>81</v>
       </c>
       <c r="D162" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E162" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -3608,10 +4117,13 @@
         <v>101</v>
       </c>
       <c r="D163" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="E163" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>154</v>
       </c>
@@ -3622,10 +4134,13 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="E164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>155</v>
       </c>
@@ -3636,10 +4151,13 @@
         <v>67</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="E165" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>56</v>
       </c>
@@ -3650,10 +4168,13 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E166" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>156</v>
       </c>
@@ -3664,10 +4185,13 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E167" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>157</v>
       </c>
@@ -3678,10 +4202,13 @@
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="E168" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>158</v>
       </c>
@@ -3692,10 +4219,13 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="E169" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>159</v>
       </c>
@@ -3706,10 +4236,13 @@
         <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E170" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>160</v>
       </c>
@@ -3720,10 +4253,13 @@
         <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>161</v>
       </c>
@@ -3734,10 +4270,13 @@
         <v>71</v>
       </c>
       <c r="D172" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E172" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -3748,10 +4287,13 @@
         <v>93</v>
       </c>
       <c r="D173" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="E173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -3762,10 +4304,13 @@
         <v>155</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E174" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>164</v>
       </c>
@@ -3776,10 +4321,13 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>165</v>
       </c>
@@ -3790,10 +4338,13 @@
         <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E176" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>166</v>
       </c>
@@ -3804,10 +4355,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E177" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>167</v>
       </c>
@@ -3818,10 +4372,13 @@
         <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E178" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>168</v>
       </c>
@@ -3832,10 +4389,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>169</v>
       </c>
@@ -3846,10 +4406,13 @@
         <v>65</v>
       </c>
       <c r="D180" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="E180" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>170</v>
       </c>
@@ -3860,10 +4423,13 @@
         <v>71</v>
       </c>
       <c r="D181" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E181" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>171</v>
       </c>
@@ -3874,10 +4440,13 @@
         <v>11</v>
       </c>
       <c r="D182" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="E182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>172</v>
       </c>
@@ -3888,10 +4457,13 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E183" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
@@ -3902,10 +4474,13 @@
         <v>45</v>
       </c>
       <c r="D184" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="E184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>174</v>
       </c>
@@ -3916,10 +4491,13 @@
         <v>61</v>
       </c>
       <c r="D185" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>175</v>
       </c>
@@ -3930,10 +4508,13 @@
         <v>93</v>
       </c>
       <c r="D186" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>176</v>
       </c>
@@ -3944,10 +4525,13 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>177</v>
       </c>
@@ -3958,10 +4542,13 @@
         <v>27</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E188" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>178</v>
       </c>
@@ -3972,10 +4559,13 @@
         <v>33</v>
       </c>
       <c r="D189" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E189" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>179</v>
       </c>
@@ -3986,10 +4576,13 @@
         <v>47</v>
       </c>
       <c r="D190" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E190" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>180</v>
       </c>
@@ -4000,10 +4593,13 @@
         <v>55</v>
       </c>
       <c r="D191" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
@@ -4014,10 +4610,13 @@
         <v>93</v>
       </c>
       <c r="D192" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E192" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
@@ -4028,10 +4627,13 @@
         <v>95</v>
       </c>
       <c r="D193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
@@ -4042,10 +4644,13 @@
         <v>97</v>
       </c>
       <c r="D194" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="E194" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>184</v>
       </c>
@@ -4056,10 +4661,13 @@
         <v>153</v>
       </c>
       <c r="D195" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E195" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>185</v>
       </c>
@@ -4070,10 +4678,13 @@
         <v>173</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E196" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>186</v>
       </c>
@@ -4084,10 +4695,13 @@
         <v>185</v>
       </c>
       <c r="D197" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E197" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>187</v>
       </c>
@@ -4098,10 +4712,13 @@
         <v>189</v>
       </c>
       <c r="D198" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E198" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>188</v>
       </c>
@@ -4112,10 +4729,13 @@
         <v>189</v>
       </c>
       <c r="D199" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>189</v>
       </c>
@@ -4126,10 +4746,13 @@
         <v>195</v>
       </c>
       <c r="D200" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="E200" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>190</v>
       </c>
@@ -4140,10 +4763,13 @@
         <v>203</v>
       </c>
       <c r="D201" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>191</v>
       </c>
@@ -4154,10 +4780,13 @@
         <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E202" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>192</v>
       </c>
@@ -4168,10 +4797,13 @@
         <v>35</v>
       </c>
       <c r="D203" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E203" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>193</v>
       </c>
@@ -4182,10 +4814,13 @@
         <v>81</v>
       </c>
       <c r="D204" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E204" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>194</v>
       </c>
@@ -4196,10 +4831,13 @@
         <v>83</v>
       </c>
       <c r="D205" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E205" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>195</v>
       </c>
@@ -4210,10 +4848,13 @@
         <v>121</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E206" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>196</v>
       </c>
@@ -4224,10 +4865,13 @@
         <v>123</v>
       </c>
       <c r="D207" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E207" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>197</v>
       </c>
@@ -4238,10 +4882,13 @@
         <v>73</v>
       </c>
       <c r="D208" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>198</v>
       </c>
@@ -4252,10 +4899,13 @@
         <v>79</v>
       </c>
       <c r="D209" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E209" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>199</v>
       </c>
@@ -4266,10 +4916,13 @@
         <v>107</v>
       </c>
       <c r="D210" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E210" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>200</v>
       </c>
@@ -4280,10 +4933,13 @@
         <v>155</v>
       </c>
       <c r="D211" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E211" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>201</v>
       </c>
@@ -4294,10 +4950,13 @@
         <v>159</v>
       </c>
       <c r="D212" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>202</v>
       </c>
@@ -4308,10 +4967,13 @@
         <v>177</v>
       </c>
       <c r="D213" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>203</v>
       </c>
@@ -4322,10 +4984,13 @@
         <v>201</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>204</v>
       </c>
@@ -4336,10 +5001,13 @@
         <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E215" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>205</v>
       </c>
@@ -4350,10 +5018,13 @@
         <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="E216" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>206</v>
       </c>
@@ -4364,10 +5035,13 @@
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E217" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>207</v>
       </c>
@@ -4378,10 +5052,13 @@
         <v>81</v>
       </c>
       <c r="D218" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E218" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>208</v>
       </c>
@@ -4392,10 +5069,13 @@
         <v>139</v>
       </c>
       <c r="D219" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E219" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>209</v>
       </c>
@@ -4406,10 +5086,13 @@
         <v>145</v>
       </c>
       <c r="D220" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E220" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>210</v>
       </c>
@@ -4420,10 +5103,13 @@
         <v>149</v>
       </c>
       <c r="D221" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E221" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>211</v>
       </c>
@@ -4434,10 +5120,13 @@
         <v>165</v>
       </c>
       <c r="D222" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E222" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>212</v>
       </c>
@@ -4448,10 +5137,13 @@
         <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="E223" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>165</v>
       </c>
@@ -4462,10 +5154,13 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E224" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>213</v>
       </c>
@@ -4476,10 +5171,13 @@
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="E225" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>165</v>
       </c>
@@ -4490,10 +5188,13 @@
         <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E226" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>214</v>
       </c>
@@ -4504,10 +5205,13 @@
         <v>63</v>
       </c>
       <c r="D227" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E227" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>215</v>
       </c>
@@ -4518,10 +5222,13 @@
         <v>137</v>
       </c>
       <c r="D228" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E228" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>216</v>
       </c>
@@ -4532,10 +5239,13 @@
         <v>141</v>
       </c>
       <c r="D229" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>56</v>
       </c>
@@ -4546,10 +5256,13 @@
         <v>165</v>
       </c>
       <c r="D230" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="E230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>217</v>
       </c>
@@ -4560,10 +5273,13 @@
         <v>193</v>
       </c>
       <c r="D231" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E231" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>218</v>
       </c>
@@ -4574,10 +5290,13 @@
         <v>233</v>
       </c>
       <c r="D232" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E232" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>219</v>
       </c>
@@ -4588,10 +5307,13 @@
         <v>241</v>
       </c>
       <c r="D233" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E233" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -4602,10 +5324,13 @@
         <v>247</v>
       </c>
       <c r="D234" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E234" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>221</v>
       </c>
@@ -4616,10 +5341,13 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E235" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>222</v>
       </c>
@@ -4630,10 +5358,13 @@
         <v>57</v>
       </c>
       <c r="D236" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>223</v>
       </c>
@@ -4644,10 +5375,13 @@
         <v>63</v>
       </c>
       <c r="D237" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="E237" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>224</v>
       </c>
@@ -4658,10 +5392,13 @@
         <v>83</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="E238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>225</v>
       </c>
@@ -4672,10 +5409,13 @@
         <v>97</v>
       </c>
       <c r="D239" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>226</v>
       </c>
@@ -4686,10 +5426,13 @@
         <v>105</v>
       </c>
       <c r="D240" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="E240" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -4700,10 +5443,13 @@
         <v>115</v>
       </c>
       <c r="D241" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E241" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>227</v>
       </c>
@@ -4714,10 +5460,13 @@
         <v>119</v>
       </c>
       <c r="D242" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>228</v>
       </c>
@@ -4728,10 +5477,13 @@
         <v>183</v>
       </c>
       <c r="D243" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="E243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>229</v>
       </c>
@@ -4742,10 +5494,13 @@
         <v>193</v>
       </c>
       <c r="D244" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="E244" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>230</v>
       </c>
@@ -4756,10 +5511,13 @@
         <v>197</v>
       </c>
       <c r="D245" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>231</v>
       </c>
@@ -4770,10 +5528,13 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="E246" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>232</v>
       </c>
@@ -4784,10 +5545,13 @@
         <v>19</v>
       </c>
       <c r="D247" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E247" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>233</v>
       </c>
@@ -4798,10 +5562,13 @@
         <v>77</v>
       </c>
       <c r="D248" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>234</v>
       </c>
@@ -4812,10 +5579,13 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E249" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>235</v>
       </c>
@@ -4826,10 +5596,13 @@
         <v>17</v>
       </c>
       <c r="D250" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>236</v>
       </c>
@@ -4840,10 +5613,13 @@
         <v>55</v>
       </c>
       <c r="D251" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E251" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>237</v>
       </c>
@@ -4854,7 +5630,10 @@
         <v>65</v>
       </c>
       <c r="D252" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="E252" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
